--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Q_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5DE4EF2-E8B8-4EAB-A041-BEAA4F3D9398}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA5C215-7EA6-4B0F-9799-8B62EA092EE5}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.14</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -506,8 +506,8 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>B3*B4*(B6-B5)</f>
-        <v>853954.4</v>
+        <f>fluid_mass*c_water*(set_temp-ambient_temp)</f>
+        <v>271960</v>
       </c>
     </row>
   </sheetData>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA5C215-7EA6-4B0F-9799-8B62EA092EE5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072A5FAF-BE52-4D89-B1EE-34F9DA1A327A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.78539749999999997</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -507,7 +507,7 @@
       </c>
       <c r="B7">
         <f>fluid_mass*c_water*(set_temp-ambient_temp)</f>
-        <v>271960</v>
+        <v>213596.70409999997</v>
       </c>
     </row>
   </sheetData>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072A5FAF-BE52-4D89-B1EE-34F9DA1A327A}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{104995CD-E320-4EBE-9A00-42BE2F7B29C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.78539749999999997</v>
+        <v>1.767144375</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -507,7 +511,7 @@
       </c>
       <c r="B7">
         <f>fluid_mass*c_water*(set_temp-ambient_temp)</f>
-        <v>213596.70409999997</v>
+        <v>480592.584225</v>
       </c>
     </row>
   </sheetData>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{104995CD-E320-4EBE-9A00-42BE2F7B29C2}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF90120-9249-4553-8896-0771CD655EC4}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="9435" yWindow="3630" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF90120-9249-4553-8896-0771CD655EC4}"/>
+  <xr:revisionPtr revIDLastSave="5066" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5ADC27-3389-4BBF-8378-6F059A19F8F2}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="3630" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5066" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5ADC27-3389-4BBF-8378-6F059A19F8F2}"/>
+  <xr:revisionPtr revIDLastSave="5086" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{819427C7-76C5-4CFE-A948-5DFC428D5A68}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <definedName name="fluid_mass">Sheet1!$B$3</definedName>
     <definedName name="Q_toBoil">Sheet1!$B$7</definedName>
     <definedName name="set_temp">Sheet1!$B$6</definedName>
+    <definedName name="UNC_Fluid_C">Sheet1!$B$9</definedName>
+    <definedName name="UNC_Fluid_Temp">Sheet1!$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Q to Boil</t>
   </si>
@@ -70,6 +72,21 @@
   </si>
   <si>
     <t>Q_toBoil</t>
+  </si>
+  <si>
+    <t>UNC_Fluid_C</t>
+  </si>
+  <si>
+    <t>C value multiplier for fluids other than water</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>UNC_Fluid_Temp</t>
+  </si>
+  <si>
+    <t>dTemp from ambient in deg C</t>
   </si>
 </sst>
 </file>
@@ -445,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0927750-596D-47ED-84F6-ED80F19DED0B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.767144375</v>
+        <v>1.4137154999999999</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -510,8 +527,33 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>fluid_mass*c_water*(set_temp-ambient_temp)</f>
-        <v>480592.584225</v>
+        <f>fluid_mass*c_water*UNC_Fluid_C*(set_temp-ambient_temp+UNC_Fluid_Temp)</f>
+        <v>511054.76033279998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.08</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5086" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{819427C7-76C5-4CFE-A948-5DFC428D5A68}"/>
+  <xr:revisionPtr revIDLastSave="5098" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8F5AF4-7B4A-4C4D-BE97-2C02039244D2}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4137154999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7">
         <f>fluid_mass*c_water*UNC_Fluid_C*(set_temp-ambient_temp+UNC_Fluid_Temp)</f>
-        <v>511054.76033279998</v>
+        <v>85132.684800000003</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5098" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8F5AF4-7B4A-4C4D-BE97-2C02039244D2}"/>
+  <xr:revisionPtr revIDLastSave="5758" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC24081-900C-4D97-BE9F-777344C04CBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.23549999999999999</v>
+        <v>0.58874952899999999</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -528,7 +524,7 @@
       </c>
       <c r="B7">
         <f>fluid_mass*c_water*UNC_Fluid_C*(set_temp-ambient_temp+UNC_Fluid_Temp)</f>
-        <v>85132.684800000003</v>
+        <v>212831.54173463042</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/Q_to_Boil/Q to Boil.xlsx
+++ b/Q_to_Boil/Q to Boil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_to_Boil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5758" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC24081-900C-4D97-BE9F-777344C04CBA}"/>
+  <xr:revisionPtr revIDLastSave="21010" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B023C94D-C5E6-407E-B218-E6DF8DD8C8BA}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
@@ -139,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.58874952899999999</v>
+        <v>1.1775105975</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -524,7 +528,7 @@
       </c>
       <c r="B7">
         <f>fluid_mass*c_water*UNC_Fluid_C*(set_temp-ambient_temp+UNC_Fluid_Temp)</f>
-        <v>212831.54173463042</v>
+        <v>425667.25497081596</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
